--- a/examples/sources/data/unsolved/to_schedule/2019-04-17.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-17.xlsx
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>43572</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -3004,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="2">
         <v>43572</v>
@@ -3127,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="2">
         <v>43572</v>
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="2">
         <v>43572</v>
@@ -3414,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="2">
         <v>43572</v>
@@ -3801,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" s="2">
         <v>43572</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" s="2">
         <v>43572</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O113" s="2">
         <v>43572</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -7261,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="N146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O146" s="2">
         <v>43572</v>
@@ -7381,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N149">
         <v>1</v>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N151">
         <v>1</v>
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="N264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O264" s="2">
         <v>43572</v>
@@ -12422,7 +12422,7 @@
         <v>1</v>
       </c>
       <c r="N271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O271" s="2">
         <v>43572</v>
